--- a/data/df_videos_2023.xlsx
+++ b/data/df_videos_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uzh-my.sharepoint.com/personal/ishwarya_sutharsan_uzh_ch/Documents/Desktop/Uni/Uni_ZH/Computerlinguistik/6_Semester/Social_Computing/Project_Git/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzobehna/projects/Social-Computing_Final-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{E64A0547-351F-4E4D-885A-CF04EC1A7693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CED90BAF-35D0-4ECD-99FB-2BE2ADBA580D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB005652-2F1C-A745-88D7-509714B61610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{837AA96F-798B-46ED-9855-D257147CCF6A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20720" windowHeight="13280" xr2:uid="{837AA96F-798B-46ED-9855-D257147CCF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="df_videos_2023" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
   <si>
     <t>video_id</t>
   </si>
@@ -949,6 +949,9 @@
   <si>
     <t>language</t>
   </si>
+  <si>
+    <t>off topic</t>
+  </si>
 </sst>
 </file>
 
@@ -963,7 +966,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,6 +976,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,14 +1000,14 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1076,7 +1085,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1395,20 +1404,20 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.265625" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="24.265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1328125" customWidth="1"/>
-    <col min="6" max="10" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="10" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1443,52 +1452,55 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>45022.783877314818</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>21686763</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>4757</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>24</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>44984.354259259257</v>
       </c>
       <c r="F3">
@@ -1497,30 +1509,30 @@
       <c r="G3">
         <v>11186</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>45078.375243055554</v>
       </c>
       <c r="F4">
@@ -1529,65 +1541,65 @@
       <c r="G4">
         <v>34732</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>27</v>
       </c>
       <c r="J4">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>45123.712141203701</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>9600532</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>28000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>27</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>45091.764293981483</v>
       </c>
       <c r="F6">
@@ -1596,30 +1608,30 @@
       <c r="G6">
         <v>13448</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>39</v>
       </c>
       <c r="J6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>44970.708599537036</v>
       </c>
       <c r="F7">
@@ -1628,30 +1640,30 @@
       <c r="G7">
         <v>14322</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="J7">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>45113.327256944445</v>
       </c>
       <c r="F8">
@@ -1660,30 +1672,30 @@
       <c r="G8">
         <v>11401</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>50</v>
       </c>
       <c r="J8">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>45290.583356481482</v>
       </c>
       <c r="F9">
@@ -1692,30 +1704,30 @@
       <c r="G9">
         <v>6652</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>56</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>45097.915555555555</v>
       </c>
       <c r="F10">
@@ -1724,30 +1736,30 @@
       <c r="G10">
         <v>1345</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>62</v>
       </c>
       <c r="J10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>45279.990624999999</v>
       </c>
       <c r="F11">
@@ -1756,30 +1768,30 @@
       <c r="G11">
         <v>8147</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>68</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>45033.217627314814</v>
       </c>
       <c r="F12">
@@ -1788,301 +1800,301 @@
       <c r="G12">
         <v>6488</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>72</v>
       </c>
       <c r="J12">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>44930.825671296298</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>4013570</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>10941</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>44992.791759259257</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>3974387</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>3293</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>45082.940266203703</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>3628694</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>25777</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>45114.125127314815</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>3615114</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>18570</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>45057.359826388885</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="2">
         <v>3400230</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="2">
         <v>6064</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>45021.878182870372</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="2">
         <v>3399207</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>5862</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>44983.750358796293</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="2">
         <v>3330350</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <v>15434</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>44933.833402777775</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="2">
         <v>3168570</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="2">
         <v>6139</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>45167.533043981479</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="2">
         <v>3164708</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <v>11881</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <v>25</v>
       </c>
     </row>
@@ -2100,7 +2112,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
